--- a/Time.xlsx
+++ b/Time.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miuxdDwhQTSq6GYwg6a5hA9Vbvt/A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miKsNeHp+cbK+btwfL38ngG2XSTXg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>3NN</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Total time minus</t>
+  </si>
+  <si>
+    <t>10 k test</t>
   </si>
 </sst>
 </file>
@@ -159,11 +162,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1643155269"/>
-        <c:axId val="1341863790"/>
+        <c:axId val="1848463385"/>
+        <c:axId val="1430961972"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1643155269"/>
+        <c:axId val="1848463385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -208,10 +211,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1341863790"/>
+        <c:crossAx val="1430961972"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1341863790"/>
+        <c:axId val="1430961972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -281,7 +284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643155269"/>
+        <c:crossAx val="1848463385"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -374,11 +377,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1515851752"/>
-        <c:axId val="395756058"/>
+        <c:axId val="195236360"/>
+        <c:axId val="394752007"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1515851752"/>
+        <c:axId val="195236360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,10 +426,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395756058"/>
+        <c:crossAx val="394752007"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395756058"/>
+        <c:axId val="394752007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1515851752"/>
+        <c:crossAx val="195236360"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -595,11 +598,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65435666"/>
-        <c:axId val="1679778294"/>
+        <c:axId val="211657624"/>
+        <c:axId val="777517375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65435666"/>
+        <c:axId val="211657624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,10 +647,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679778294"/>
+        <c:crossAx val="777517375"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1679778294"/>
+        <c:axId val="777517375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -717,7 +720,436 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65435666"/>
+        <c:crossAx val="211657624"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="2000">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>K accuracy rate comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2315667762403486"/>
+          <c:y val="0.030395136778115502"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'工作表1'!$A$7</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'工作表1'!$B$8:$L$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'工作表1'!$B$7:$L$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="493192287"/>
+        <c:axId val="1295160552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493192287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295160552"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1295160552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493192287"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="2000">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Average Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30977605347875203"/>
+          <c:y val="0.04559270516717325"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'工作表1'!$A$10</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'工作表1'!$B$1:$L$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'工作表1'!$B$10:$L$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2058942723"/>
+        <c:axId val="452047137"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2058942723"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452047137"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452047137"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058942723"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -815,6 +1247,56 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4972050" cy="2752725"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="882361310" name="Chart 4" title="图表"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4591050" cy="2533650"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="454282286" name="Chart 5" title="图表"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1254,35 +1736,79 @@
         <f t="shared" si="2"/>
         <v>4.389</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.9008</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.8818</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.895</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.8944</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.897</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.8946</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.8926</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.8918</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.8914</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.891</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10.0</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
